--- a/Lab5/random_dataset.xlsx
+++ b/Lab5/random_dataset.xlsx
@@ -14,49 +14,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>UI/UX</t>
-  </si>
-  <si>
-    <t>SysAdmin, MobileDev</t>
-  </si>
-  <si>
-    <t>SysAdmin, DatabaseAdmin</t>
-  </si>
-  <si>
-    <t>UI/UX, NetworkAdmin, SoftDev, DatabaseAdmin</t>
-  </si>
-  <si>
     <t>MobileDev</t>
   </si>
   <si>
-    <t>DatabaseAdmin, ProjectManagement</t>
-  </si>
-  <si>
-    <t>UI/UX, NetworkAdmin, DatabaseAdmin, MobileDev</t>
-  </si>
-  <si>
-    <t>UI/UX, WebDev, DatabaseAdmin</t>
-  </si>
-  <si>
-    <t>WebDev, NetworkAdmin, SoftDev</t>
-  </si>
-  <si>
-    <t>WebDev, NetworkAdmin, DatabaseAdmin</t>
-  </si>
-  <si>
-    <t>SysAdmin, SoftDev, MobileDev, DatabaseAdmin</t>
-  </si>
-  <si>
-    <t>SysAdmin, WebDev, ProjectManagement</t>
-  </si>
-  <si>
-    <t>WebDev, NetworkAdmin</t>
-  </si>
-  <si>
-    <t>UI/UX, NetworkAdmin</t>
-  </si>
-  <si>
-    <t>WebDev, SoftDev, MobileDev, DatabaseAdmin</t>
+    <t>SysAdmin</t>
+  </si>
+  <si>
+    <t>MobileDev, ProjectManagement</t>
+  </si>
+  <si>
+    <t>SoftDev, MobileDev, ProjectManagement</t>
+  </si>
+  <si>
+    <t>NetworkAdmin, DatabaseAdmin, ProjectManagement</t>
+  </si>
+  <si>
+    <t>WebDev, DatabaseAdmin</t>
+  </si>
+  <si>
+    <t>UI/UX, NetworkAdmin, DatabaseAdmin, ProjectManagement</t>
+  </si>
+  <si>
+    <t>WebDev, NetworkAdmin, MobileDev, ProjectManagement</t>
+  </si>
+  <si>
+    <t>SysAdmin, DatabaseAdmin, ProjectManagement</t>
+  </si>
+  <si>
+    <t>WebDev, MobileDev, DatabaseAdmin</t>
+  </si>
+  <si>
+    <t>UI/UX, NetworkAdmin, SoftDev</t>
+  </si>
+  <si>
+    <t>NetworkAdmin</t>
+  </si>
+  <si>
+    <t>SysAdmin, NetworkAdmin, SoftDev, MobileDev</t>
+  </si>
+  <si>
+    <t>UI/UX, SysAdmin, WebDev, DatabaseAdmin</t>
+  </si>
+  <si>
+    <t>UI/UX, MobileDev, DatabaseAdmin</t>
   </si>
 </sst>
 </file>

--- a/Lab5/random_dataset.xlsx
+++ b/Lab5/random_dataset.xlsx
@@ -14,49 +14,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>MobileDev</t>
-  </si>
-  <si>
-    <t>SysAdmin</t>
-  </si>
-  <si>
-    <t>MobileDev, ProjectManagement</t>
-  </si>
-  <si>
-    <t>SoftDev, MobileDev, ProjectManagement</t>
-  </si>
-  <si>
-    <t>NetworkAdmin, DatabaseAdmin, ProjectManagement</t>
-  </si>
-  <si>
-    <t>WebDev, DatabaseAdmin</t>
+    <t>WebDev, SoftDev, DatabaseAdmin</t>
+  </si>
+  <si>
+    <t>UI/UX, SysAdmin, SoftDev, DatabaseAdmin</t>
+  </si>
+  <si>
+    <t>SysAdmin, WebDev, NetworkAdmin, DatabaseAdmin</t>
   </si>
   <si>
     <t>UI/UX, NetworkAdmin, DatabaseAdmin, ProjectManagement</t>
   </si>
   <si>
-    <t>WebDev, NetworkAdmin, MobileDev, ProjectManagement</t>
-  </si>
-  <si>
-    <t>SysAdmin, DatabaseAdmin, ProjectManagement</t>
-  </si>
-  <si>
-    <t>WebDev, MobileDev, DatabaseAdmin</t>
-  </si>
-  <si>
-    <t>UI/UX, NetworkAdmin, SoftDev</t>
+    <t>UI/UX, SoftDev, MobileDev, ProjectManagement</t>
+  </si>
+  <si>
+    <t>UI/UX, WebDev, NetworkAdmin, ProjectManagement</t>
   </si>
   <si>
     <t>NetworkAdmin</t>
   </si>
   <si>
-    <t>SysAdmin, NetworkAdmin, SoftDev, MobileDev</t>
-  </si>
-  <si>
-    <t>UI/UX, SysAdmin, WebDev, DatabaseAdmin</t>
-  </si>
-  <si>
-    <t>UI/UX, MobileDev, DatabaseAdmin</t>
+    <t>ProjectManagement</t>
+  </si>
+  <si>
+    <t>SysAdmin, WebDev, SoftDev, MobileDev</t>
+  </si>
+  <si>
+    <t>DatabaseAdmin</t>
+  </si>
+  <si>
+    <t>UI/UX, WebDev, MobileDev, ProjectManagement</t>
+  </si>
+  <si>
+    <t>SysAdmin, WebDev, DatabaseAdmin</t>
+  </si>
+  <si>
+    <t>SoftDev, DatabaseAdmin</t>
+  </si>
+  <si>
+    <t>NetworkAdmin, SoftDev, DatabaseAdmin</t>
+  </si>
+  <si>
+    <t>SysAdmin, UI/UX, DatabaseAdmin</t>
   </si>
 </sst>
 </file>
